--- a/src/test/resources/Documents/24084/Base/JobPlanning.xlsx
+++ b/src/test/resources/Documents/24084/Base/JobPlanning.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="62">
   <si>
     <t>Component</t>
   </si>
@@ -100,25 +100,6 @@
     <t>Cover Case Bind  4p</t>
   </si>
   <si>
-    <t>Post-Press Cut</t>
-  </si>
-  <si>
-    <t>Final Trim</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>Cut for Press
-Final Trim</t>
-  </si>
-  <si>
-    <t>Cut for Press</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
     <t>Print Uncollated F 4x0</t>
   </si>
   <si>
@@ -139,7 +120,42 @@
 Farmout 3</t>
   </si>
   <si>
+    <t>Post-Press Cut</t>
+  </si>
+  <si>
+    <t>Final Trim</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>Cut for Press
+Final Trim</t>
+  </si>
+  <si>
+    <t>Cut for Press</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
     <t>End Sheet  4p - 1</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>HeidCyl_2128_1</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>HeidCyl_2128_1
+HeidCyl_2128_2</t>
   </si>
   <si>
     <t>252</t>
@@ -158,35 +174,22 @@
 MBO 26"</t>
   </si>
   <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>HeidCyl_2128_1</t>
-  </si>
-  <si>
-    <t>255</t>
-  </si>
-  <si>
-    <t>HeidCyl_2128_1
-HeidCyl_2128_2</t>
-  </si>
-  <si>
     <t>End Sheet  4p - 2</t>
   </si>
   <si>
     <t>Text  4p</t>
   </si>
   <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
     <t>Print Uncollated F/B 4x4</t>
   </si>
   <si>
     <t>260</t>
-  </si>
-  <si>
-    <t>257</t>
   </si>
   <si>
     <t>Text 12p - 1</t>
@@ -209,13 +212,78 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="340">
+  <fonts count="353">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1933,7 +2001,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="340">
+  <cellXfs count="353">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -2274,6 +2342,19 @@
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="346" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="351" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -2456,7 +2537,7 @@
         <v>29</v>
       </c>
       <c r="M4" t="s" s="40">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -2464,22 +2545,22 @@
         <v>27</v>
       </c>
       <c r="B5" t="s" s="42">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s" s="43">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s" s="44">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s" s="45">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s" s="46">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s" s="47">
         <v>32</v>
-      </c>
-      <c r="C5" t="s" s="43">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s" s="44">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s" s="45">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s" s="46">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s" s="47">
-        <v>33</v>
       </c>
       <c r="H5" t="s" s="48">
         <v>18</v>
@@ -2494,10 +2575,10 @@
         <v>18</v>
       </c>
       <c r="L5" t="s" s="52">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M5" t="s" s="53">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -2538,7 +2619,7 @@
         <v>35</v>
       </c>
       <c r="M6" t="s" s="66">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
@@ -2546,13 +2627,13 @@
         <v>27</v>
       </c>
       <c r="B7" t="s" s="68">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s" s="69">
         <v>18</v>
       </c>
       <c r="D7" t="s" s="70">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s" s="71">
         <v>18</v>
@@ -2561,7 +2642,7 @@
         <v>18</v>
       </c>
       <c r="G7" t="s" s="73">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s" s="74">
         <v>18</v>
@@ -2576,10 +2657,10 @@
         <v>18</v>
       </c>
       <c r="L7" t="s" s="78">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M7" t="s" s="79">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
@@ -2587,13 +2668,13 @@
         <v>40</v>
       </c>
       <c r="B8" t="s" s="81">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s" s="82">
         <v>18</v>
       </c>
       <c r="D8" t="s" s="83">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s" s="84">
         <v>18</v>
@@ -2617,10 +2698,10 @@
         <v>18</v>
       </c>
       <c r="L8" t="s" s="91">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M8" t="s" s="92">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
@@ -2669,13 +2750,13 @@
         <v>40</v>
       </c>
       <c r="B10" t="s" s="107">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s" s="108">
         <v>18</v>
       </c>
       <c r="D10" t="s" s="109">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s" s="110">
         <v>18</v>
@@ -2699,10 +2780,10 @@
         <v>18</v>
       </c>
       <c r="L10" t="s" s="117">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M10" t="s" s="118">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
@@ -2792,13 +2873,13 @@
         <v>51</v>
       </c>
       <c r="B13" t="s" s="146">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s" s="147">
         <v>18</v>
       </c>
       <c r="D13" t="s" s="148">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s" s="149">
         <v>18</v>
@@ -2822,10 +2903,10 @@
         <v>18</v>
       </c>
       <c r="L13" t="s" s="156">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M13" t="s" s="157">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14">
@@ -2874,13 +2955,13 @@
         <v>51</v>
       </c>
       <c r="B15" t="s" s="172">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s" s="173">
         <v>18</v>
       </c>
       <c r="D15" t="s" s="174">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s" s="175">
         <v>18</v>
@@ -2904,10 +2985,10 @@
         <v>18</v>
       </c>
       <c r="L15" t="s" s="182">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M15" t="s" s="183">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16">
@@ -2915,7 +2996,7 @@
         <v>52</v>
       </c>
       <c r="B16" t="s" s="185">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s" s="186">
         <v>18</v>
@@ -2930,7 +3011,7 @@
         <v>18</v>
       </c>
       <c r="G16" t="s" s="190">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H16" t="s" s="191">
         <v>18</v>
@@ -2948,7 +3029,7 @@
         <v>35</v>
       </c>
       <c r="M16" t="s" s="196">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17">
@@ -2956,13 +3037,13 @@
         <v>52</v>
       </c>
       <c r="B17" t="s" s="198">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s" s="199">
         <v>18</v>
       </c>
       <c r="D17" t="s" s="200">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s" s="201">
         <v>18</v>
@@ -2971,7 +3052,7 @@
         <v>18</v>
       </c>
       <c r="G17" t="s" s="203">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s" s="204">
         <v>18</v>
@@ -2986,10 +3067,10 @@
         <v>18</v>
       </c>
       <c r="L17" t="s" s="208">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M17" t="s" s="209">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18">
@@ -2997,13 +3078,13 @@
         <v>52</v>
       </c>
       <c r="B18" t="s" s="211">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s" s="212">
         <v>18</v>
       </c>
       <c r="D18" t="s" s="213">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s" s="214">
         <v>18</v>
@@ -3012,7 +3093,7 @@
         <v>18</v>
       </c>
       <c r="G18" t="s" s="216">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H18" t="s" s="217">
         <v>18</v>
@@ -3027,33 +3108,33 @@
         <v>18</v>
       </c>
       <c r="L18" t="s" s="221">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M18" t="s" s="222">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="223">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s" s="224">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s" s="225">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s" s="226">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s" s="227">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s" s="228">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s" s="229">
         <v>56</v>
-      </c>
-      <c r="B19" t="s" s="224">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s" s="225">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s" s="226">
-        <v>32</v>
-      </c>
-      <c r="E19" t="s" s="227">
-        <v>18</v>
-      </c>
-      <c r="F19" t="s" s="228">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s" s="229">
-        <v>57</v>
       </c>
       <c r="H19" t="s" s="230">
         <v>18</v>
@@ -3068,24 +3149,24 @@
         <v>18</v>
       </c>
       <c r="L19" t="s" s="234">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M19" t="s" s="235">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="236">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s" s="237">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s" s="238">
         <v>18</v>
       </c>
       <c r="D20" t="s" s="239">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E20" t="s" s="240">
         <v>18</v>
@@ -3109,24 +3190,24 @@
         <v>18</v>
       </c>
       <c r="L20" t="s" s="247">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M20" t="s" s="248">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="249">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s" s="250">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s" s="251">
         <v>18</v>
       </c>
       <c r="D21" t="s" s="252">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E21" t="s" s="253">
         <v>18</v>
@@ -3135,7 +3216,7 @@
         <v>18</v>
       </c>
       <c r="G21" t="s" s="255">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="H21" t="s" s="256">
         <v>18</v>
@@ -3150,24 +3231,24 @@
         <v>18</v>
       </c>
       <c r="L21" t="s" s="260">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M21" t="s" s="261">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="262">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s" s="263">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s" s="264">
         <v>18</v>
       </c>
       <c r="D22" t="s" s="265">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s" s="266">
         <v>18</v>
@@ -3176,7 +3257,7 @@
         <v>18</v>
       </c>
       <c r="G22" t="s" s="268">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s" s="269">
         <v>18</v>
@@ -3191,24 +3272,24 @@
         <v>18</v>
       </c>
       <c r="L22" t="s" s="273">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="M22" t="s" s="274">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="275">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s" s="276">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s" s="277">
         <v>18</v>
       </c>
       <c r="D23" t="s" s="278">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s" s="279">
         <v>18</v>
@@ -3217,7 +3298,7 @@
         <v>18</v>
       </c>
       <c r="G23" t="s" s="281">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s" s="282">
         <v>18</v>
@@ -3232,24 +3313,24 @@
         <v>18</v>
       </c>
       <c r="L23" t="s" s="286">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M23" t="s" s="287">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="288">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s" s="289">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s" s="290">
         <v>18</v>
       </c>
       <c r="D24" t="s" s="291">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E24" t="s" s="292">
         <v>18</v>
@@ -3258,7 +3339,7 @@
         <v>18</v>
       </c>
       <c r="G24" t="s" s="294">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H24" t="s" s="295">
         <v>18</v>
@@ -3273,10 +3354,10 @@
         <v>18</v>
       </c>
       <c r="L24" t="s" s="299">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M24" t="s" s="300">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25">
@@ -3284,13 +3365,13 @@
         <v>60</v>
       </c>
       <c r="B25" t="s" s="302">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s" s="303">
         <v>18</v>
       </c>
       <c r="D25" t="s" s="304">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E25" t="s" s="305">
         <v>18</v>
@@ -3299,7 +3380,7 @@
         <v>18</v>
       </c>
       <c r="G25" t="s" s="307">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H25" t="s" s="308">
         <v>18</v>
@@ -3314,24 +3395,24 @@
         <v>18</v>
       </c>
       <c r="L25" t="s" s="312">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M25" t="s" s="313">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="314">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s" s="315">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s" s="316">
         <v>18</v>
       </c>
       <c r="D26" t="s" s="317">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E26" t="s" s="318">
         <v>18</v>
@@ -3355,24 +3436,24 @@
         <v>18</v>
       </c>
       <c r="L26" t="s" s="325">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M26" t="s" s="326">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="327">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s" s="328">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s" s="329">
         <v>18</v>
       </c>
       <c r="D27" t="s" s="330">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E27" t="s" s="331">
         <v>18</v>
@@ -3381,7 +3462,7 @@
         <v>18</v>
       </c>
       <c r="G27" t="s" s="333">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="H27" t="s" s="334">
         <v>18</v>
@@ -3396,10 +3477,51 @@
         <v>18</v>
       </c>
       <c r="L27" t="s" s="338">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M27" t="s" s="339">
-        <v>45</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="340">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s" s="341">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s" s="342">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s" s="343">
+        <v>48</v>
+      </c>
+      <c r="E28" t="s" s="344">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s" s="345">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s" s="346">
+        <v>49</v>
+      </c>
+      <c r="H28" t="s" s="347">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s" s="348">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s" s="349">
+        <v>18</v>
+      </c>
+      <c r="K28" t="s" s="350">
+        <v>18</v>
+      </c>
+      <c r="L28" t="s" s="351">
+        <v>48</v>
+      </c>
+      <c r="M28" t="s" s="352">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
